--- a/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
+++ b/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789AF206-BAC1-43F9-B5FA-830B7A30CC5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E3499-9D96-4E52-8EBD-D4C3D928FB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -49,9 +49,6 @@
     <t>http://codeforces.com/problemset/problem/591/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/599/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/199/A</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>http://codeforces.com/problemset/problem/766/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/336/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/355/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/479/A</t>
   </si>
   <si>
@@ -91,15 +82,9 @@
     <t>http://codeforces.com/problemset/problem/659/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/667/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/194/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/214/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/221/A</t>
   </si>
   <si>
@@ -121,18 +106,6 @@
     <t>http://codeforces.com/problemset/problem/588/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/742/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/747/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/285/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/289/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/322/A</t>
   </si>
   <si>
@@ -142,15 +115,6 @@
     <t>http://codeforces.com/problemset/problem/476/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/483/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/527/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/534/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/552/A</t>
   </si>
   <si>
@@ -181,9 +145,6 @@
     <t>http://codeforces.com/problemset/problem/738/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/735/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/208/A</t>
   </si>
   <si>
@@ -193,42 +154,21 @@
     <t>http://codeforces.com/problemset/problem/259/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/365/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/382/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/404/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/488/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/519/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/544/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/556/A</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/757/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/186/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/234/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/363/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/369/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/405/A</t>
   </si>
   <si>
@@ -238,18 +178,12 @@
     <t>http://codeforces.com/problemset/problem/450/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/469/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/496/A</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/545/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/551/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/567/A</t>
   </si>
   <si>
@@ -259,9 +193,6 @@
     <t>http://codeforces.com/problemset/problem/580/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/583/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/604/A</t>
   </si>
   <si>
@@ -271,15 +202,6 @@
     <t>http://codeforces.com/problemset/problem/631/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/676/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/699/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/707/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/768/A</t>
   </si>
   <si>
@@ -289,60 +211,9 @@
     <t>http://codeforces.com/problemset/problem/152/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/157/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/165/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/218/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/242/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/296/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/302/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/352/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/359/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/368/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/385/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/389/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/435/A</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/439/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/462/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/499/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/507/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/535/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/560/A</t>
-  </si>
-  <si>
     <t>Accepted solution link</t>
   </si>
   <si>
@@ -362,6 +233,186 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/84/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/1/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/124/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/313/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/168/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/318/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/451/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/876/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/6/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/48/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/761/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/776/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/706/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/820/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/807/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/10/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/26/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/127/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/879/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/916/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/143/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/465/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/554/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/745/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/765/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/320/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/868/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/841/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/96/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/94/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/63/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/133/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/137/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/948/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/975/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/980/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/989/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1008/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1011/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/408/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/415/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/160/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/205/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/215/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/244/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/275/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/337/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/586/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/839/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/834/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/814/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/810/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/11/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/129/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/872/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/892/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/914/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1004/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/230/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/272/A</t>
   </si>
 </sst>
 </file>
@@ -602,14 +653,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -951,28 +995,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -997,23 +1041,23 @@
       <c r="A3" s="17"/>
       <c r="B3" s="6">
         <f>SUM(B4:B797)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <f>SUM(C4:C797)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6">
         <f>SUM(D4:D797)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(E4:E797)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(F4:F797)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="e">
         <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
@@ -1041,14 +1085,14 @@
       </c>
       <c r="M3" s="6">
         <f>COUNTA(M4:M797)</f>
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N3" s="6">
         <f>COUNTA(N4:N797)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>327</v>
       </c>
@@ -1073,9 +1117,9 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1098,9 +1142,9 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -1123,9 +1167,9 @@
       </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1144,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -1169,18 +1213,18 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>285</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1194,18 +1238,18 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>337</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1219,18 +1263,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>362</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1244,18 +1288,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>396</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1269,18 +1313,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>195</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1294,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1319,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7">
@@ -1344,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7">
@@ -1369,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
@@ -1394,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
@@ -1419,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1444,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>122</v>
+        <v>441</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="7"/>
@@ -1469,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="12"/>
@@ -1494,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="7"/>
@@ -1519,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="7"/>
@@ -1544,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1569,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="7"/>
@@ -1594,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1619,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1644,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1669,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1694,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1719,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1744,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1769,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1794,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1819,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1844,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>275</v>
+        <v>412</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1869,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1894,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1919,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1944,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1969,20 +2013,20 @@
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12">
-        <v>1</v>
-      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -1994,20 +2038,20 @@
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12">
-        <v>1</v>
-      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2019,20 +2063,20 @@
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12">
-        <v>1</v>
-      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2044,20 +2088,20 @@
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12">
-        <v>1</v>
-      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2069,20 +2113,20 @@
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12">
-        <v>1</v>
-      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2094,20 +2138,20 @@
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2119,20 +2163,20 @@
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2144,20 +2188,20 @@
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2169,20 +2213,20 @@
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -2194,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2219,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2244,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2269,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>213</v>
+        <v>397</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2294,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2319,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2344,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2369,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2394,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2419,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2444,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2469,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2494,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2519,21 +2563,21 @@
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12">
-        <v>1</v>
-      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -2544,21 +2588,21 @@
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>216</v>
+        <v>438</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
-        <v>1</v>
-      </c>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -2569,21 +2613,21 @@
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>238</v>
+        <v>429</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -2594,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7">
-        <v>1</v>
-      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -2619,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7">
-        <v>1</v>
-      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -2644,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7">
-        <v>1</v>
-      </c>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -2669,21 +2713,21 @@
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12">
-        <v>1</v>
-      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -2694,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12">
-        <v>1</v>
-      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -2719,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -2744,46 +2788,46 @@
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>314</v>
+        <v>478</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L102" si="2">SUM(G72:K72)</f>
+        <f t="shared" ref="L72:L119" si="2">SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>317</v>
+        <v>480</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12">
-        <v>1</v>
-      </c>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2794,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>321</v>
+        <v>487</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7">
-        <v>1</v>
-      </c>
+      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -2819,21 +2863,21 @@
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7">
-        <v>1</v>
-      </c>
+      <c r="E75" s="7">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2844,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>334</v>
+        <v>499</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12">
-        <v>1</v>
-      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -2869,21 +2913,21 @@
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7">
-        <v>1</v>
-      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -2894,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12">
-        <v>1</v>
-      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -2919,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7">
-        <v>1</v>
-      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -2944,21 +2988,21 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>363</v>
+        <v>157</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12">
-        <v>1</v>
-      </c>
+      <c r="E80" s="12">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -2969,21 +3013,21 @@
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7">
-        <v>1</v>
-      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -2994,21 +3038,21 @@
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12">
-        <v>1</v>
-      </c>
+      <c r="E82" s="12">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -3019,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12">
-        <v>1</v>
-      </c>
+      <c r="E83" s="12">
+        <v>1</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -3044,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3069,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3084,23 +3128,23 @@
       <c r="F85" s="12">
         <v>1</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -3109,23 +3153,23 @@
       <c r="F86" s="12">
         <v>1</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
       <c r="L86" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -3134,23 +3178,23 @@
       <c r="F87" s="12">
         <v>1</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3159,23 +3203,23 @@
       <c r="F88" s="12">
         <v>1</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
       <c r="L88" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -3194,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3219,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3244,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="N91" s="13"/>
     </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3269,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3284,23 +3328,23 @@
       <c r="F93" s="12">
         <v>1</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
       <c r="L93" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3319,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="N94" s="13"/>
     </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3344,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3369,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N96" s="13"/>
     </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3384,23 +3428,23 @@
       <c r="F97" s="7">
         <v>1</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
       <c r="L97" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3409,23 +3453,23 @@
       <c r="F98" s="7">
         <v>1</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
       <c r="L98" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3434,23 +3478,23 @@
       <c r="F99" s="12">
         <v>1</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="N99" s="13"/>
     </row>
-    <row r="100" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3469,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3484,23 +3528,23 @@
       <c r="F101" s="12">
         <v>1</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
       <c r="L101" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="N101" s="13"/>
     </row>
-    <row r="102" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3519,147 +3563,351 @@
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>251</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L103" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>325</v>
+      </c>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L104" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>428</v>
+      </c>
+      <c r="F105" s="12">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>426</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L106" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>418</v>
+      </c>
+      <c r="F107" s="12">
+        <v>1</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>415</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L108" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>11</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>94</v>
+      </c>
+      <c r="F110" s="12">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>440</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>446</v>
+      </c>
+      <c r="F112" s="12">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>458</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>495</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>252</v>
+      </c>
+      <c r="F115" s="12">
+        <v>1</v>
+      </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>142</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>167</v>
+      </c>
+      <c r="F117" s="12">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>257</v>
+      </c>
+      <c r="F118" s="7">
+        <v>1</v>
+      </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>334</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -3667,39 +3915,39 @@
       <c r="K120" s="12"/>
       <c r="L120" s="8"/>
     </row>
-    <row r="121" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="8"/>
     </row>
-    <row r="122" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="8"/>
     </row>
-    <row r="123" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
       <c r="L124" s="8"/>
     </row>
-    <row r="125" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -3707,7 +3955,7 @@
       <c r="K125" s="12"/>
       <c r="L125" s="8"/>
     </row>
-    <row r="126" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -3715,15 +3963,15 @@
       <c r="K126" s="12"/>
       <c r="L126" s="8"/>
     </row>
-    <row r="127" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
       <c r="L127" s="8"/>
     </row>
-    <row r="128" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -3740,19 +3988,19 @@
       <c r="L129" s="8"/>
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="8"/>
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
       <c r="L131" s="8"/>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.3">
@@ -3788,11 +4036,11 @@
       <c r="L135" s="8"/>
     </row>
     <row r="136" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
       <c r="L136" s="8"/>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.3">
@@ -4140,22 +4388,22 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="M48:M82 A48:A82 M4:M16 A4:A16">
-    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A47 A83:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A21">
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
+++ b/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E3499-9D96-4E52-8EBD-D4C3D928FB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A04DFB-594C-4AAD-AFC5-443BD7BA3B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,174 +46,6 @@
     <t>C++</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/591/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/199/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/670/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/195/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/501/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/610/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/697/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/766/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/479/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/515/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/584/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/659/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/194/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/221/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/246/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/276/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/334/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/460/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/579/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/588/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/322/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/366/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/476/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/552/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/577/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/373/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/376/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/387/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/400/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/424/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/474/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/733/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/738/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/208/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/219/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/259/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/404/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/519/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/556/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/757/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/363/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/405/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/441/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/450/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/496/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/545/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/567/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/572/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/580/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/604/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/621/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/631/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/768/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/149/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/152/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/439/A</t>
-  </si>
-  <si>
     <t>Accepted solution link</t>
   </si>
   <si>
@@ -235,57 +67,9 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/84/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/1/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/124/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/313/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/168/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/318/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/451/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/876/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/6/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/48/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/761/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/776/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/706/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/820/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/807/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/10/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/26/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/127/A</t>
   </si>
   <si>
@@ -295,39 +79,6 @@
     <t>https://codeforces.com/problemset/problem/916/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/143/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/465/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/554/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/745/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/765/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/320/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/868/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/841/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/96/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/94/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/63/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/133/A</t>
   </si>
   <si>
@@ -352,48 +103,6 @@
     <t>https://codeforces.com/problemset/problem/1011/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/408/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/415/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/160/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/205/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/215/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/244/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/275/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/337/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/586/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/839/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/834/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/814/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/810/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/11/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/129/A</t>
   </si>
   <si>
@@ -409,10 +118,301 @@
     <t>https://codeforces.com/problemset/problem/1004/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/230/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/272/A</t>
+    <t>https://codeforces.com/problemset/problem/591/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/199/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/670/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/194/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/460/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/84/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/195/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/476/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/313/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/168/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/318/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/451/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/501/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/697/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/876/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/6/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/48/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/610/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/766/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/479/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/515/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/584/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/659/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/761/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/776/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/246/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/276/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/588/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/706/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/820/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/807/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/10/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/26/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/221/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/334/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/579/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/322/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/366/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/552/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/577/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/143/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/465/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/554/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/745/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/765/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/320/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/373/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/376/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/387/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/424/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/474/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/738/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/208/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/519/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/556/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/868/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/841/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/96/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/94/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/63/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/400/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/733/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/219/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/259/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/404/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/757/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/363/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/408/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/415/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/160/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/205/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/215/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/244/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/275/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/337/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/405/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/496/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/545/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/567/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/572/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/580/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/621/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/631/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/768/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/149/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/152/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/439/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/586/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/839/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/834/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/814/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/810/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/11/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/441/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/230/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/272/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/450/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/604/A</t>
   </si>
 </sst>
 </file>
@@ -995,28 +995,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N4" s="11"/>
     </row>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N7" s="11"/>
     </row>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N10" s="11"/>
     </row>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N12" s="11"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" s="13"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="N14" s="13"/>
     </row>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="N15" s="11"/>
     </row>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N16" s="11"/>
     </row>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="N17" s="11"/>
     </row>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N18" s="11"/>
     </row>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N22" s="13"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N24" s="11"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N25" s="13"/>
     </row>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N30" s="13"/>
     </row>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N31" s="13"/>
     </row>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="N36" s="13"/>
     </row>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N38" s="13"/>
     </row>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N39" s="13"/>
     </row>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="N40" s="11"/>
     </row>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N41" s="13"/>
     </row>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="N42" s="13"/>
     </row>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N43" s="13"/>
     </row>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="N44" s="13"/>
     </row>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="N45" s="13"/>
     </row>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="N48" s="13"/>
     </row>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N49" s="13"/>
     </row>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="N50" s="11"/>
     </row>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N51" s="13"/>
     </row>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="N52" s="13"/>
     </row>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="N53" s="13"/>
     </row>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="N56" s="13"/>
     </row>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N57" s="11"/>
     </row>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N59" s="11"/>
     </row>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="N60" s="13"/>
     </row>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="N61" s="13"/>
     </row>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="N62" s="13"/>
     </row>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N64" s="13"/>
     </row>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N65" s="11"/>
     </row>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N66" s="11"/>
     </row>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N67" s="11"/>
     </row>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N68" s="11"/>
     </row>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="N69" s="13"/>
     </row>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="N70" s="13"/>
     </row>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="N71" s="11"/>
     </row>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N72" s="13"/>
     </row>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="N73" s="13"/>
     </row>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N74" s="11"/>
     </row>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N75" s="11"/>
     </row>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="N76" s="13"/>
     </row>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="N77" s="11"/>
     </row>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N78" s="13"/>
     </row>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N79" s="11"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N80" s="13"/>
     </row>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="N81" s="11"/>
     </row>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="N82" s="13"/>
     </row>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="N83" s="13"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N84" s="13"/>
     </row>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N85" s="13"/>
     </row>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N86" s="13"/>
     </row>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N87" s="13"/>
     </row>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N88" s="13"/>
     </row>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N89" s="13"/>
     </row>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N90" s="13"/>
     </row>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N91" s="13"/>
     </row>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="N92" s="13"/>
     </row>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="N93" s="13"/>
     </row>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N94" s="13"/>
     </row>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="N95" s="13"/>
     </row>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N96" s="13"/>
     </row>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N97" s="11"/>
     </row>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="N98" s="11"/>
     </row>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="N99" s="13"/>
     </row>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="N100" s="11"/>
     </row>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="N101" s="13"/>
     </row>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="N102" s="11"/>
     </row>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -4387,26 +4387,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M48:M82 A48:A82 M4:M16 A4:A16">
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A47 A83:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A21">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
+++ b/level-1/codeforces-phase-1-2/codeforces-phase-1-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A04DFB-594C-4AAD-AFC5-443BD7BA3B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3A6F3-5631-49A8-90DA-1804CFA7D2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 1.2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -103,21 +103,6 @@
     <t>https://codeforces.com/problemset/problem/1011/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/129/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/872/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/892/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/914/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/1004/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/591/A</t>
   </si>
   <si>
@@ -376,43 +361,70 @@
     <t>https://codeforces.com/problemset/problem/149/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/152/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/439/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/586/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/839/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/834/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/814/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/810/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/11/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/441/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/230/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/272/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/450/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/604/A</t>
+    <t>https://codeforces.com/problemset/problem/984/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/939/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/937/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/899/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/831/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/821/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/794/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/785/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/136/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/34/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/32/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/22/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/139/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/978/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/988/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/999/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1003/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1005/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1006/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1015/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/782/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1013/A</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,26 +660,15 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -958,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1040,55 +1041,55 @@
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="6">
-        <f>SUM(B4:B797)</f>
+        <f>SUM(B4:B819)</f>
         <v>10</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C4:C797)</f>
+        <f>SUM(C4:C819)</f>
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(D4:D797)</f>
+        <f>SUM(D4:D819)</f>
         <v>20</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(E4:E797)</f>
+        <f>SUM(E4:E819)</f>
         <v>34</v>
       </c>
       <c r="F3" s="6">
-        <f>SUM(F4:F797)</f>
-        <v>36</v>
+        <f>SUM(F4:F819)</f>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
+        <f>AVERAGE(G4:G198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K198)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L198)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>COUNTA(M4:M797)</f>
-        <v>116</v>
+        <f>COUNTA(M4:M819)</f>
+        <v>120</v>
       </c>
       <c r="N3" s="6">
-        <f>COUNTA(N4:N797)</f>
+        <f>COUNTA(N4:N819)</f>
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N4" s="11"/>
     </row>
@@ -1138,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1163,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -1188,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" s="11"/>
     </row>
@@ -1209,11 +1210,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L71" si="1">SUM(G8:K8)</f>
+        <f>SUM(G8:K8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -1234,11 +1235,11 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G9:K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1259,11 +1260,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G10:K10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N10" s="11"/>
     </row>
@@ -1284,11 +1285,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G11:K11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1309,7 +1310,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G12:K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
@@ -1334,11 +1335,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G13:K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N13" s="13"/>
     </row>
@@ -1359,11 +1360,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G14:K14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N14" s="13"/>
     </row>
@@ -1384,11 +1385,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G15:K15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N15" s="11"/>
     </row>
@@ -1409,11 +1410,11 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G16:K16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N16" s="11"/>
     </row>
@@ -1434,11 +1435,11 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G17:K17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N17" s="11"/>
     </row>
@@ -1459,11 +1460,11 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G18:K18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N18" s="11"/>
     </row>
@@ -1484,11 +1485,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G19:K19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1509,11 +1510,11 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G20:K20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1534,11 +1535,11 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1559,11 +1560,11 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G22:K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N22" s="13"/>
     </row>
@@ -1584,11 +1585,11 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G23:K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1609,11 +1610,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G24:K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N24" s="11"/>
     </row>
@@ -1634,11 +1635,11 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G25:K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N25" s="13"/>
     </row>
@@ -1659,11 +1660,11 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G26:K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -1684,11 +1685,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G27:K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -1709,11 +1710,11 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G28:K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -1734,11 +1735,11 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G29:K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -1759,11 +1760,11 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G30:K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N30" s="13"/>
     </row>
@@ -1784,11 +1785,11 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G31:K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N31" s="13"/>
     </row>
@@ -1809,11 +1810,11 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G32:K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -1834,11 +1835,11 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G33:K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -1859,11 +1860,11 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G34:K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -1884,11 +1885,11 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -1909,11 +1910,11 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N36" s="13"/>
     </row>
@@ -1934,11 +1935,11 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G37:K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -1959,11 +1960,11 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G38:K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N38" s="13"/>
     </row>
@@ -1984,7 +1985,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G39:K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
@@ -2009,7 +2010,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G40:K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
@@ -2034,7 +2035,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G41:K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
@@ -2059,11 +2060,11 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G42:K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N42" s="13"/>
     </row>
@@ -2084,11 +2085,11 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N43" s="13"/>
     </row>
@@ -2109,11 +2110,11 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G44:K44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N44" s="13"/>
     </row>
@@ -2134,11 +2135,11 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G45:K45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N45" s="13"/>
     </row>
@@ -2159,11 +2160,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G46:K46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2184,11 +2185,11 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G47:K47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -2209,11 +2210,11 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G48:K48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N48" s="13"/>
     </row>
@@ -2234,11 +2235,11 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G49:K49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N49" s="13"/>
     </row>
@@ -2259,11 +2260,11 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G50:K50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N50" s="11"/>
     </row>
@@ -2284,11 +2285,11 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G51:K51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N51" s="13"/>
     </row>
@@ -2309,11 +2310,11 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G52:K52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N52" s="13"/>
     </row>
@@ -2334,11 +2335,11 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G53:K53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N53" s="13"/>
     </row>
@@ -2359,11 +2360,11 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G54:K54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2384,11 +2385,11 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G55:K55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2409,11 +2410,11 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G56:K56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N56" s="13"/>
     </row>
@@ -2434,11 +2435,11 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G57:K57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N57" s="11"/>
     </row>
@@ -2459,11 +2460,11 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G58:K58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2484,11 +2485,11 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G59:K59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N59" s="11"/>
     </row>
@@ -2509,11 +2510,11 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G60:K60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N60" s="13"/>
     </row>
@@ -2534,11 +2535,11 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G61:K61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N61" s="13"/>
     </row>
@@ -2559,11 +2560,11 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G62:K62)</f>
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N62" s="13"/>
     </row>
@@ -2584,11 +2585,11 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G63:K63)</f>
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2609,11 +2610,11 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G64:K64)</f>
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N64" s="13"/>
     </row>
@@ -2634,11 +2635,11 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G65:K65)</f>
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N65" s="11"/>
     </row>
@@ -2659,11 +2660,11 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G66:K66)</f>
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N66" s="11"/>
     </row>
@@ -2684,11 +2685,11 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G67:K67)</f>
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N67" s="11"/>
     </row>
@@ -2709,11 +2710,11 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G68:K68)</f>
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N68" s="11"/>
     </row>
@@ -2734,7 +2735,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G69:K69)</f>
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
@@ -2759,7 +2760,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G70:K70)</f>
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
@@ -2784,7 +2785,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(G71:K71)</f>
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
@@ -2809,7 +2810,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L119" si="2">SUM(G72:K72)</f>
+        <f>SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
@@ -2834,7 +2835,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G73:K73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
@@ -2859,7 +2860,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G74:K74)</f>
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
@@ -2884,7 +2885,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G75:K75)</f>
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
@@ -2909,7 +2910,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G76:K76)</f>
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
@@ -2934,11 +2935,11 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G77:K77)</f>
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N77" s="11"/>
     </row>
@@ -2959,11 +2960,11 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G78:K78)</f>
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N78" s="13"/>
     </row>
@@ -2984,11 +2985,11 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G79:K79)</f>
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N79" s="11"/>
     </row>
@@ -3009,11 +3010,11 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N80" s="13"/>
     </row>
@@ -3034,11 +3035,11 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G81:K81)</f>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N81" s="11"/>
     </row>
@@ -3059,11 +3060,11 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G82:K82)</f>
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N82" s="13"/>
     </row>
@@ -3084,17 +3085,17 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G83:K83)</f>
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>239</v>
+    <row r="84" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>483</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3108,18 +3109,17 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="8">
-        <f t="shared" si="2"/>
+      <c r="L84" s="21">
+        <f>SUM(G84:K84)</f>
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N84" s="13"/>
-    </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>240</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>464</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3128,23 +3128,22 @@
       <c r="F85" s="12">
         <v>1</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="8">
-        <f t="shared" si="2"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="21">
+        <f>SUM(G85:K85)</f>
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>111</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>467</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -3153,23 +3152,22 @@
       <c r="F86" s="12">
         <v>1</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8">
-        <f t="shared" si="2"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="21">
+        <f>SUM(G86:K86)</f>
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>129</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>452</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -3178,23 +3176,22 @@
       <c r="F87" s="12">
         <v>1</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="8">
-        <f t="shared" si="2"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="21">
+        <f>SUM(G87:K87)</f>
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>132</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>424</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3203,23 +3200,22 @@
       <c r="F88" s="12">
         <v>1</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="8">
-        <f t="shared" si="2"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="21">
+        <f>SUM(G88:K88)</f>
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>150</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>420</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -3233,18 +3229,17 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="8">
-        <f t="shared" si="2"/>
+      <c r="L89" s="21">
+        <f>SUM(G89:K89)</f>
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>168</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>414</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3258,18 +3253,17 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="8">
-        <f t="shared" si="2"/>
+      <c r="L90" s="21">
+        <f>SUM(G90:K90)</f>
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>196</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>404</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3283,18 +3277,17 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="8">
-        <f t="shared" si="2"/>
+      <c r="L91" s="21">
+        <f>SUM(G91:K91)</f>
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>238</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>97</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3308,18 +3301,17 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="8">
-        <f t="shared" si="2"/>
+      <c r="L92" s="21">
+        <f>SUM(G92:K92)</f>
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>283</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>34</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3333,18 +3325,17 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="8">
-        <f t="shared" si="2"/>
+      <c r="L93" s="21">
+        <f>SUM(G93:K93)</f>
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>303</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <v>32</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3353,23 +3344,22 @@
       <c r="F94" s="12">
         <v>1</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8">
-        <f t="shared" si="2"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="21">
+        <f>SUM(G94:K94)</f>
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>314</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>22</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3383,18 +3373,17 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="8">
-        <f t="shared" si="2"/>
+      <c r="L95" s="21">
+        <f>SUM(G95:K95)</f>
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>317</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>99</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3403,73 +3392,70 @@
       <c r="F96" s="12">
         <v>1</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="8">
-        <f t="shared" si="2"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="21">
+        <f>SUM(G96:K96)</f>
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N96" s="13"/>
-    </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>321</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8">
-        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>481</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="21">
+        <f>SUM(G97:K97)</f>
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>341</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7">
-        <v>1</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8">
-        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <v>486</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="21">
+        <f>SUM(G98:K98)</f>
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="N98" s="11"/>
-    </row>
-    <row r="99" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>344</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>490</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3478,29 +3464,28 @@
       <c r="F99" s="12">
         <v>1</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="8">
-        <f t="shared" si="2"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="21">
+        <f>SUM(G99:K99)</f>
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>399</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>494</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12">
         <v>1</v>
       </c>
       <c r="G100" s="12"/>
@@ -3508,18 +3493,17 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
-      <c r="L100" s="8">
-        <f t="shared" si="2"/>
+      <c r="L100" s="21">
+        <f>SUM(G100:K100)</f>
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N100" s="11"/>
-    </row>
-    <row r="101" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>106</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>496</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3533,45 +3517,47 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
-      <c r="L101" s="8">
-        <f t="shared" si="2"/>
+      <c r="L101" s="21">
+        <f>SUM(G101:K101)</f>
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N101" s="13"/>
-    </row>
-    <row r="102" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>108</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7">
-        <v>1</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="8">
-        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
+        <v>498</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="21">
+        <f>SUM(G102:K102)</f>
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="N102" s="11"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>251</v>
-      </c>
-      <c r="F103" s="7">
+      <c r="A103" s="12">
+        <v>501</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12">
         <v>1</v>
       </c>
       <c r="G103" s="12"/>
@@ -3579,19 +3565,23 @@
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
-      <c r="L103" s="8">
-        <f t="shared" si="2"/>
+      <c r="L103" s="21">
+        <f>SUM(G103:K103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
-        <v>325</v>
-      </c>
-      <c r="F104" s="7">
+      <c r="A104" s="12">
+        <v>403</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12">
         <v>1</v>
       </c>
       <c r="G104" s="12"/>
@@ -3599,39 +3589,47 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-      <c r="L104" s="8">
-        <f t="shared" si="2"/>
+      <c r="L104" s="21">
+        <f>SUM(G104:K104)</f>
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>428</v>
-      </c>
+      <c r="A105" s="12">
+        <v>500</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="12">
         <v>1</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="8">
-        <f t="shared" si="2"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="21">
+        <f>SUM(G105:K105)</f>
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>426</v>
-      </c>
-      <c r="F106" s="7">
+        <v>239</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12">
         <v>1</v>
       </c>
       <c r="G106" s="12"/>
@@ -3640,77 +3638,97 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G106:K106)</f>
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>418</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="12">
         <v>1</v>
       </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G107:K107)</f>
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>415</v>
-      </c>
-      <c r="F108" s="7">
-        <v>1</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G108:K108)</f>
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>11</v>
-      </c>
-      <c r="F109" s="7">
-        <v>1</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G109:K109)</f>
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>94</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="12">
         <v>1</v>
       </c>
@@ -3720,78 +3738,98 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G110:K110)</f>
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
-        <v>440</v>
-      </c>
-      <c r="F111" s="7">
-        <v>1</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12">
+        <v>1</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
       <c r="L111" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G111:K111)</f>
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
-        <v>446</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="12">
         <v>1</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
       <c r="L112" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G112:K112)</f>
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
-        <v>458</v>
-      </c>
-      <c r="F113" s="7">
-        <v>1</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12">
+        <v>1</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
       <c r="L113" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G113:K113)</f>
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
-        <v>495</v>
-      </c>
-      <c r="F114" s="7">
+        <v>238</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12">
         <v>1</v>
       </c>
       <c r="G114" s="12"/>
@@ -3800,17 +3838,22 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G114:K114)</f>
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
-        <v>252</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="12">
         <v>1</v>
       </c>
@@ -3820,37 +3863,47 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G115:K115)</f>
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
-        <v>142</v>
-      </c>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+        <v>303</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G116:K116)</f>
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
-        <v>167</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="12">
         <v>1</v>
       </c>
@@ -3860,37 +3913,47 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G117:K117)</f>
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
-        <v>257</v>
-      </c>
-      <c r="F118" s="7">
-        <v>1</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
+        <v>317</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12">
+        <v>1</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G118:K118)</f>
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
-        <v>334</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
       <c r="F119" s="7">
         <v>1</v>
       </c>
@@ -3900,188 +3963,113 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(G119:K119)</f>
         <v>0</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>341</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="8">
+        <f>SUM(G120:K120)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>344</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12">
+        <v>1</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="8"/>
+      <c r="L121" s="8">
+        <f>SUM(G121:K121)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>399</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="8">
+        <f>SUM(G122:K122)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>106</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12">
+        <v>1</v>
+      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="8">
+        <f>SUM(G123:K123)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N123" s="13"/>
     </row>
     <row r="142" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G142" s="12"/>
@@ -4092,11 +4080,11 @@
       <c r="L142" s="8"/>
     </row>
     <row r="143" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="8"/>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.3">
@@ -4116,11 +4104,11 @@
       <c r="L145" s="8"/>
     </row>
     <row r="146" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
       <c r="L146" s="8"/>
     </row>
     <row r="147" spans="7:12" x14ac:dyDescent="0.3">
@@ -4148,11 +4136,11 @@
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
       <c r="L150" s="8"/>
     </row>
     <row r="151" spans="7:12" x14ac:dyDescent="0.3">
@@ -4164,11 +4152,11 @@
       <c r="L151" s="8"/>
     </row>
     <row r="152" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="8"/>
     </row>
     <row r="153" spans="7:12" x14ac:dyDescent="0.3">
@@ -4188,11 +4176,11 @@
       <c r="L154" s="8"/>
     </row>
     <row r="155" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
       <c r="L155" s="8"/>
     </row>
     <row r="156" spans="7:12" x14ac:dyDescent="0.3">
@@ -4212,19 +4200,19 @@
       <c r="L157" s="8"/>
     </row>
     <row r="158" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="7:12" x14ac:dyDescent="0.3">
@@ -4244,11 +4232,11 @@
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="7:12" x14ac:dyDescent="0.3">
@@ -4276,19 +4264,19 @@
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="7:12" x14ac:dyDescent="0.3">
@@ -4316,19 +4304,19 @@
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
       <c r="L172" s="8"/>
     </row>
     <row r="173" spans="7:12" x14ac:dyDescent="0.3">
@@ -4363,13 +4351,189 @@
       <c r="K176" s="12"/>
       <c r="L176" s="8"/>
     </row>
+    <row r="177" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="8"/>
+    </row>
+    <row r="179" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="8"/>
+    </row>
+    <row r="180" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="8"/>
+    </row>
+    <row r="181" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="8"/>
+    </row>
+    <row r="182" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="8"/>
+    </row>
+    <row r="183" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="8"/>
+    </row>
+    <row r="184" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="8"/>
+    </row>
+    <row r="186" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="8"/>
+    </row>
+    <row r="187" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="8"/>
+    </row>
+    <row r="188" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="8"/>
+    </row>
+    <row r="189" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="8"/>
+    </row>
+    <row r="190" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="8"/>
+    </row>
+    <row r="191" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="8"/>
+    </row>
+    <row r="192" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="8"/>
+    </row>
+    <row r="193" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="8"/>
+    </row>
+    <row r="194" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="8"/>
+    </row>
+    <row r="195" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="8"/>
+    </row>
+    <row r="196" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="8"/>
+    </row>
+    <row r="197" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="8"/>
+    </row>
+    <row r="198" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I303">
-    <sortCondition descending="1" ref="B4:B303"/>
-    <sortCondition descending="1" ref="C4:C303"/>
-    <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
-    <sortCondition descending="1" ref="F4:F303"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I325">
+    <sortCondition descending="1" ref="B4:B325"/>
+    <sortCondition descending="1" ref="C4:C325"/>
+    <sortCondition descending="1" ref="D4:D325"/>
+    <sortCondition descending="1" ref="E4:E325"/>
+    <sortCondition descending="1" ref="F4:F325"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="M1:M2"/>
@@ -4387,6 +4551,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A84:A105">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84:M105">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
